--- a/single_digit/Results/5vs8_SVM_GL.xlsx
+++ b/single_digit/Results/5vs8_SVM_GL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Group_Learning\single_digit\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7DF60F-AE0F-49BB-B704-32378C8CB4AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B609B79-B362-49BD-A175-01D78DE8F8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60F57292-22A5-4A33-BAC1-D93E5267D72A}"/>
   </bookViews>
@@ -179,23 +179,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>SVM!$D$7:$H$7</c:f>
+              <c:f>SVM!$E$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -203,24 +200,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GL_MV!$B$28:$F$28</c:f>
+              <c:f>GL_MV!$C$48:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.46510000000000007</c:v>
+                  <c:v>9.0299999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.151</c:v>
+                  <c:v>9.3400000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14259999999999998</c:v>
+                  <c:v>9.9300000000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21210000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17660000000000001</c:v>
+                  <c:v>0.1046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -249,23 +243,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>SVM!$D$7:$H$7</c:f>
+              <c:f>SVM!$E$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -273,24 +264,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GL_adaptive!$B$28:$F$28</c:f>
+              <c:f>GL_adaptive!$C$48:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.20179999999999998</c:v>
+                  <c:v>0.15265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12310000000000001</c:v>
+                  <c:v>0.15685000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16030000000000003</c:v>
+                  <c:v>0.16990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15629999999999999</c:v>
+                  <c:v>0.14995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -336,23 +324,20 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SVM!$D$7:$H$7</c:f>
+              <c:f>SVM!$E$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
@@ -360,24 +345,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SVM!$D$8:$H$8</c:f>
+              <c:f>SVM!$E$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.20739999999999997</c:v>
+                  <c:v>0.16345000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20739999999999997</c:v>
+                  <c:v>0.16345000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20739999999999997</c:v>
+                  <c:v>0.16345000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20739999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20739999999999997</c:v>
+                  <c:v>0.16345000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,6 +501,7 @@
         <c:axId val="517260128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -752,9 +735,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
@@ -772,24 +752,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GL_MV!$B$13:$F$13</c:f>
+              <c:f>GL_MV!$C$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.21000000000000002</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,9 +799,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
@@ -842,10 +816,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GL_adaptive!$B$13:$F$13</c:f>
+              <c:f>GL_adaptive!$C$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -856,9 +830,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -944,10 +915,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SVM!$D$9:$H$9</c:f>
+              <c:f>SVM!$E$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -958,9 +929,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1103,6 +1071,7 @@
         <c:axId val="517260128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2379,13 +2348,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2417,13 +2386,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2818,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D86EA0-3C88-40C3-A1C5-042D836277E7}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2830,6 +2799,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -2844,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.17699999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2852,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.16400000000000001</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2860,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.17599999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2868,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0.28499999999999998</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2876,10 +2848,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.17</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2899,22 +2868,19 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.20739999999999997</v>
+        <v>0.247</v>
       </c>
       <c r="E8">
-        <v>0.20739999999999997</v>
+        <v>0.16345000000000001</v>
       </c>
       <c r="F8">
-        <v>0.20739999999999997</v>
+        <v>0.16345000000000001</v>
       </c>
       <c r="G8">
-        <v>0.20739999999999997</v>
+        <v>0.16345000000000001</v>
       </c>
       <c r="H8">
-        <v>0.20739999999999997</v>
+        <v>0.16345000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2922,10 +2888,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2945,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.159</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2953,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.19800000000000001</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2961,22 +2924,97 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0.246</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <f>AVERAGE(A3:A12)</f>
         <v>0</v>
       </c>
       <c r="B13">
-        <f>AVERAGE(B3:B12)</f>
-        <v>0.20739999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>8</v>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f>AVERAGE(A3:A22)</f>
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>AVERAGE(B3:B22)</f>
+        <v>0.16345000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2988,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45602E2-DFDB-4DC2-9A73-7D0DAA27F788}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I14:I15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3022,448 +3060,668 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="e">
+        <f t="shared" ref="B23:F23" si="0">AVERAGE(B3:B22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28">
+        <v>0.153</v>
+      </c>
+      <c r="D28">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.08</v>
+      </c>
+      <c r="F28">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D29">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E29">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F29">
         <v>0.1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5">
-        <v>0.5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8">
-        <v>0.3</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9">
-        <v>0.3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10">
-        <v>0.2</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11">
-        <v>0.3</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12">
-        <v>0.2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.192</v>
+      </c>
+      <c r="E30">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E31">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F31">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32">
+        <v>0.16</v>
+      </c>
+      <c r="D32">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.154</v>
+      </c>
+      <c r="F32">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.157</v>
+      </c>
+      <c r="E33">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F33">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D34">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E34">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36">
+        <v>0.158</v>
+      </c>
+      <c r="D36">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E37">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F37">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D38">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E38">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F38">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.128</v>
+      </c>
+      <c r="E39">
+        <v>0.112</v>
+      </c>
+      <c r="F39">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D40">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E41">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F41">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42">
+        <v>0.05</v>
+      </c>
+      <c r="D42">
+        <v>0.09</v>
+      </c>
+      <c r="E42">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D43">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44">
+        <v>0.106</v>
+      </c>
+      <c r="D44">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D45">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E45">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="C46">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D46">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F46">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D47">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F47">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
-        <f t="shared" ref="B13:F13" si="0">AVERAGE(B3:B12)</f>
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="B48" t="e">
+        <f t="shared" ref="B48:F48" si="1">AVERAGE(B28:B47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>9.0299999999999991E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>9.3400000000000011E-2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>9.9300000000000013E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18">
-        <v>0.496</v>
-      </c>
-      <c r="C18">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="D18">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.155</v>
-      </c>
-      <c r="F18">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="C19">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D19">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E19">
-        <v>0.153</v>
-      </c>
-      <c r="F19">
-        <v>0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20">
-        <v>0.5</v>
-      </c>
-      <c r="C20">
-        <v>0.13</v>
-      </c>
-      <c r="D20">
-        <v>0.216</v>
-      </c>
-      <c r="E20">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="C21">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="D21">
-        <v>0.104</v>
-      </c>
-      <c r="E21">
-        <v>0.316</v>
-      </c>
-      <c r="F21">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="C22">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="D22">
-        <v>0.307</v>
-      </c>
-      <c r="E22">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="F22">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="C23">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="D23">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="E23">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24">
-        <v>0.436</v>
-      </c>
-      <c r="C24">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="D24">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="E24">
-        <v>0.11</v>
-      </c>
-      <c r="F24">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="C25">
-        <v>0.11</v>
-      </c>
-      <c r="D25">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E25">
-        <v>0.313</v>
-      </c>
-      <c r="F25">
-        <v>0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="C26">
-        <v>0.186</v>
-      </c>
-      <c r="D26">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="E26">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="F26">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27">
-        <v>0.437</v>
-      </c>
-      <c r="C27">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="D27">
-        <v>0.124</v>
-      </c>
-      <c r="E27">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="F27">
-        <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:F28" si="1">AVERAGE(B18:B27)</f>
-        <v>0.46510000000000007</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>0.151</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>0.14259999999999998</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0.17660000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ref="B29:F29" si="2">STDEVA(B18:B27)</f>
-        <v>2.7497272592022646E-2</v>
-      </c>
-      <c r="C29">
+      <c r="B49" t="e">
+        <f t="shared" ref="B49:F49" si="2">STDEVA(B28:B47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49">
         <f t="shared" si="2"/>
-        <v>4.9308552334593352E-2</v>
-      </c>
-      <c r="D29">
+        <v>3.6844052580115548E-2</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="2"/>
-        <v>6.9865267161555791E-2</v>
-      </c>
-      <c r="E29">
+        <v>3.2113941881337059E-2</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="2"/>
-        <v>7.3530719204062414E-2</v>
-      </c>
-      <c r="F29">
+        <v>4.2084001210611316E-2</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="2"/>
-        <v>3.3052819681365836E-2</v>
+        <v>3.0166904137865304E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3475,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E7B3FA-A786-498B-86FF-4C69BB3470EF}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3509,9 +3767,6 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -3526,9 +3781,6 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -3543,9 +3795,6 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -3560,9 +3809,6 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
         <v>0</v>
       </c>
@@ -3577,9 +3823,6 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -3594,9 +3837,6 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -3611,9 +3851,6 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
         <v>0</v>
       </c>
@@ -3628,9 +3865,6 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -3645,9 +3879,6 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -3662,9 +3893,6 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -3679,278 +3907,528 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
-        <f t="shared" ref="B13:F13" si="0">AVERAGE(B3:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B23" t="e">
+        <f t="shared" ref="B23:F23" si="0">AVERAGE(B3:B22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="B27">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C27">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D27">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="E27">
         <v>20</v>
       </c>
-      <c r="F17">
+      <c r="F27">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="B18">
-        <v>0.189</v>
-      </c>
-      <c r="C18">
-        <v>0.09</v>
-      </c>
-      <c r="D18">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E18">
+    <row r="28" spans="1:6">
+      <c r="C28">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E28">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F18">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19">
-        <v>0.309</v>
-      </c>
-      <c r="C19">
-        <v>0.23</v>
-      </c>
-      <c r="D19">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="E19">
-        <v>0.11</v>
-      </c>
-      <c r="F19">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="C20">
-        <v>0.123</v>
-      </c>
-      <c r="D20">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="E20">
-        <v>0.372</v>
-      </c>
-      <c r="F20">
+      <c r="F28">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.182</v>
+      </c>
+      <c r="E29">
+        <v>0.216</v>
+      </c>
+      <c r="F29">
         <v>0.107</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="B21">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="C21">
+    <row r="30" spans="1:6">
+      <c r="C30">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.115</v>
+      </c>
+      <c r="E30">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31">
+        <v>0.124</v>
+      </c>
+      <c r="D31">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.159</v>
+      </c>
+      <c r="F31">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32">
+        <v>0.184</v>
+      </c>
+      <c r="D32">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E32">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>0.2</v>
+      </c>
+      <c r="F33">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35">
+        <v>0.159</v>
+      </c>
+      <c r="D35">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.156</v>
+      </c>
+      <c r="F35">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="C36">
+        <v>0.16</v>
+      </c>
+      <c r="D36">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E36">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F36">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.247</v>
+      </c>
+      <c r="F37">
         <v>0.127</v>
       </c>
-      <c r="D21">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="E21">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="F21">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22">
-        <v>0.126</v>
-      </c>
-      <c r="C22">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="D22">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E38">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.252</v>
+      </c>
+      <c r="F40">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E22">
+      <c r="D41">
+        <v>0.107</v>
+      </c>
+      <c r="E41">
+        <v>0.127</v>
+      </c>
+      <c r="F41">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.12</v>
+      </c>
+      <c r="E42">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43">
+        <v>0.307</v>
+      </c>
+      <c r="D43">
         <v>0.157</v>
       </c>
-      <c r="F22">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23">
-        <v>0.156</v>
-      </c>
-      <c r="C23">
-        <v>0.151</v>
-      </c>
-      <c r="D23">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="E23">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24">
-        <v>0.124</v>
-      </c>
-      <c r="C24">
-        <v>0.104</v>
-      </c>
-      <c r="D24">
-        <v>0.1</v>
-      </c>
-      <c r="E24">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="F24">
-        <v>0.193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="C25">
-        <v>0.115</v>
-      </c>
-      <c r="D25">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="E25">
-        <v>0.218</v>
-      </c>
-      <c r="F25">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="C26">
-        <v>5.4000000000000097E-2</v>
-      </c>
-      <c r="D26">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E26">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="F26">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="C27">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="D27">
-        <v>0.156</v>
-      </c>
-      <c r="E27">
-        <v>0.183</v>
-      </c>
-      <c r="F27">
+      <c r="E43">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44">
+        <v>5.5000000000000097E-2</v>
+      </c>
+      <c r="D44">
         <v>0.13300000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="E44">
+        <v>0.125</v>
+      </c>
+      <c r="F44">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E45">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F45">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="C46">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D46">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E46">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D47">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F47">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B28">
-        <f t="shared" ref="B28:F28" si="1">AVERAGE(B18:B27)</f>
-        <v>0.20179999999999998</v>
-      </c>
-      <c r="C28">
+      <c r="B48" t="e">
+        <f t="shared" ref="B48:F48" si="1">AVERAGE(B28:B47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C48">
         <f t="shared" si="1"/>
-        <v>0.12310000000000001</v>
-      </c>
-      <c r="D28">
+        <v>0.15265000000000001</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="1"/>
-        <v>0.16030000000000003</v>
-      </c>
-      <c r="E28">
+        <v>0.15685000000000002</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="1"/>
-        <v>0.22639999999999999</v>
-      </c>
-      <c r="F28">
+        <v>0.16990000000000002</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="1"/>
-        <v>0.15629999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+        <v>0.14995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B29">
-        <f t="shared" ref="B29:F29" si="2">STDEVA(B18:B27)</f>
-        <v>6.6801197594055173E-2</v>
-      </c>
-      <c r="C29">
+      <c r="B49" t="e">
+        <f t="shared" ref="B49:F49" si="2">STDEVA(B28:B47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49">
         <f t="shared" si="2"/>
-        <v>4.6160228191232618E-2</v>
-      </c>
-      <c r="D29">
+        <v>7.8456340524020424E-2</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="2"/>
-        <v>5.4252598504075732E-2</v>
-      </c>
-      <c r="E29">
+        <v>6.846380142281866E-2</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="2"/>
-        <v>9.2036466202865055E-2</v>
-      </c>
-      <c r="F29">
+        <v>6.5806654598708131E-2</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="2"/>
-        <v>2.6242670934525363E-2</v>
+        <v>5.1668452147983143E-2</v>
       </c>
     </row>
   </sheetData>
